--- a/biology/Botanique/Fragilariopsis/Fragilariopsis.xlsx
+++ b/biology/Botanique/Fragilariopsis/Fragilariopsis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fragilariopsis est un genre de diatomées de la famille des Bacillariaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon AlgaeBase                                           (3 février 2019)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon AlgaeBase                                           (3 février 2019) :
 Fragilariopsis acuta Hajós (Statut incertain)
 Fragilariopsis angulata Hasle
 Fragilariopsis atlantica Paasche
@@ -549,7 +563,7 @@
 Fragilariopsis tigris Riesselman (Statut incertain)
 Fragilariopsis truncata H.T.Brady ex M.P. Olney in Olney &amp; al. (Sans vérification)
 Fragilariopsis vanheurckii (Peragallo) Hustedt
-Selon Catalogue of Life                                  (3 février 2019)[2] :
+Selon Catalogue of Life                                  (3 février 2019) :
 Fragilariopsis curta (Van Heurck) Hustedt
 Fragilariopsis cylindrus (Grunow) Krieger in Helmcke &amp; Krieger
 Fragilariopsis doliolus (G. C. Wallich) Medlin &amp; Sims
@@ -558,7 +572,7 @@
 Fragilariopsis obliquecostata (Van Heurck) Heiden &amp; Kolbe
 Fragilariopsis rhombica (O'Meara) Hustedt
 Fragilariopsis sublinearis (Van Heurck) Heiden &amp; Kolbe
-Selon ITIS      (3 février 2019)[3] :
+Selon ITIS      (3 février 2019) :
 Fragilariopsis curta (Van Heurck) Hustedt
 Fragilariopsis cylindrus (Grunow) Krieger in Helmcke &amp; Krieger
 Fragilariopsis doliolus (G. C. Wallich) Medlin &amp; Sims
@@ -567,7 +581,7 @@
 Fragilariopsis obliquecostata (Van Heurck) Heiden &amp; Kolbe
 Fragilariopsis rhombica (O'Meara) Hustedt
 Fragilariopsis sublinearis (Van Heurck) Heiden &amp; Kolbe
-Selon NCBI  (3 février 2019)[4] :
+Selon NCBI  (3 février 2019) :
 Fragilariopsis curta
 Fragilariopsis cylindrus
 Fragilariopsis doliolus (Wallich) Medlin &amp; P.A.Sims 1993
@@ -580,7 +594,7 @@
 Fragilariopsis rhombica
 Fragilariopsis sublineata
 Fragilariopsis vanheurckii (Peragallo) Hustedt 1958
-Selon World Register of Marine Species                               (3 février 2019)[5] :
+Selon World Register of Marine Species                               (3 février 2019) :
 Fragilariopsis acuta Hajós, 1973
 Fragilariopsis acuta Hajós, 1974
 Fragilariopsis atlantica Paasche, 1961
